--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Selplg-Sell.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Selplg-Sell.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.648940720028511</v>
+        <v>2.134978</v>
       </c>
       <c r="H2">
-        <v>0.648940720028511</v>
+        <v>6.404934000000001</v>
       </c>
       <c r="I2">
-        <v>0.001710293656379793</v>
+        <v>0.005239957927637478</v>
       </c>
       <c r="J2">
-        <v>0.001710293656379793</v>
+        <v>0.005239957927637478</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>6.52355150852913</v>
+        <v>0.2554386666666666</v>
       </c>
       <c r="N2">
-        <v>6.52355150852913</v>
+        <v>0.766316</v>
       </c>
       <c r="O2">
-        <v>0.02458255828262532</v>
+        <v>0.0007909079353329646</v>
       </c>
       <c r="P2">
-        <v>0.02458255828262532</v>
+        <v>0.0007909079353329647</v>
       </c>
       <c r="Q2">
-        <v>4.233398213087973</v>
+        <v>0.5453559336826667</v>
       </c>
       <c r="R2">
-        <v>4.233398213087973</v>
+        <v>4.908203403144</v>
       </c>
       <c r="S2">
-        <v>4.204339348836061E-05</v>
+        <v>4.144324305779357E-06</v>
       </c>
       <c r="T2">
-        <v>4.204339348836061E-05</v>
+        <v>4.144324305779358E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.648940720028511</v>
+        <v>2.134978</v>
       </c>
       <c r="H3">
-        <v>0.648940720028511</v>
+        <v>6.404934000000001</v>
       </c>
       <c r="I3">
-        <v>0.001710293656379793</v>
+        <v>0.005239957927637478</v>
       </c>
       <c r="J3">
-        <v>0.001710293656379793</v>
+        <v>0.005239957927637478</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.47680559342688</v>
+        <v>50.24424533333334</v>
       </c>
       <c r="N3">
-        <v>7.47680559342688</v>
+        <v>150.732736</v>
       </c>
       <c r="O3">
-        <v>0.02817468506655764</v>
+        <v>0.1555699176538776</v>
       </c>
       <c r="P3">
-        <v>0.02817468506655764</v>
+        <v>0.1555699176538776</v>
       </c>
       <c r="Q3">
-        <v>4.852003605311638</v>
+        <v>107.2703584132694</v>
       </c>
       <c r="R3">
-        <v>4.852003605311638</v>
+        <v>965.4332257194242</v>
       </c>
       <c r="S3">
-        <v>4.818698513983201E-05</v>
+        <v>0.0008151798233123454</v>
       </c>
       <c r="T3">
-        <v>4.818698513983201E-05</v>
+        <v>0.0008151798233123454</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.648940720028511</v>
+        <v>2.134978</v>
       </c>
       <c r="H4">
-        <v>0.648940720028511</v>
+        <v>6.404934000000001</v>
       </c>
       <c r="I4">
-        <v>0.001710293656379793</v>
+        <v>0.005239957927637478</v>
       </c>
       <c r="J4">
-        <v>0.001710293656379793</v>
+        <v>0.005239957927637478</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>251.372816573784</v>
+        <v>14.97480166666667</v>
       </c>
       <c r="N4">
-        <v>251.372816573784</v>
+        <v>44.924405</v>
       </c>
       <c r="O4">
-        <v>0.947242756650817</v>
+        <v>0.04636607927357893</v>
       </c>
       <c r="P4">
-        <v>0.947242756650817</v>
+        <v>0.04636607927357893</v>
       </c>
       <c r="Q4">
-        <v>163.1260565829862</v>
+        <v>31.97087211269667</v>
       </c>
       <c r="R4">
-        <v>163.1260565829862</v>
+        <v>287.73784901427</v>
       </c>
       <c r="S4">
-        <v>0.0016200632777516</v>
+        <v>0.0002429563046630577</v>
       </c>
       <c r="T4">
-        <v>0.0016200632777516</v>
+        <v>0.0002429563046630577</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.854169385928834</v>
+        <v>2.134978</v>
       </c>
       <c r="H5">
-        <v>0.854169385928834</v>
+        <v>6.404934000000001</v>
       </c>
       <c r="I5">
-        <v>0.002251177090819211</v>
+        <v>0.005239957927637478</v>
       </c>
       <c r="J5">
-        <v>0.002251177090819211</v>
+        <v>0.005239957927637478</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.52355150852913</v>
+        <v>257.4944153333333</v>
       </c>
       <c r="N5">
-        <v>6.52355150852913</v>
+        <v>772.483246</v>
       </c>
       <c r="O5">
-        <v>0.02458255828262532</v>
+        <v>0.7972730951372106</v>
       </c>
       <c r="P5">
-        <v>0.02458255828262532</v>
+        <v>0.7972730951372106</v>
       </c>
       <c r="Q5">
-        <v>5.572217986115445</v>
+        <v>549.7449118595295</v>
       </c>
       <c r="R5">
-        <v>5.572217986115445</v>
+        <v>4947.704206735764</v>
       </c>
       <c r="S5">
-        <v>5.533969203957417E-05</v>
+        <v>0.004177677475356295</v>
       </c>
       <c r="T5">
-        <v>5.533969203957417E-05</v>
+        <v>0.004177677475356295</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.854169385928834</v>
+        <v>1.322521333333333</v>
       </c>
       <c r="H6">
-        <v>0.854169385928834</v>
+        <v>3.967564</v>
       </c>
       <c r="I6">
-        <v>0.002251177090819211</v>
+        <v>0.003245914545756296</v>
       </c>
       <c r="J6">
-        <v>0.002251177090819211</v>
+        <v>0.003245914545756297</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>7.47680559342688</v>
+        <v>0.2554386666666666</v>
       </c>
       <c r="N6">
-        <v>7.47680559342688</v>
+        <v>0.766316</v>
       </c>
       <c r="O6">
-        <v>0.02817468506655764</v>
+        <v>0.0007909079353329646</v>
       </c>
       <c r="P6">
-        <v>0.02817468506655764</v>
+        <v>0.0007909079353329647</v>
       </c>
       <c r="Q6">
-        <v>6.386458442446709</v>
+        <v>0.3378230860248888</v>
       </c>
       <c r="R6">
-        <v>6.386458442446709</v>
+        <v>3.040407774224</v>
       </c>
       <c r="S6">
-        <v>6.342620556288071E-05</v>
+        <v>2.56721957165135E-06</v>
       </c>
       <c r="T6">
-        <v>6.342620556288071E-05</v>
+        <v>2.567219571651351E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.854169385928834</v>
+        <v>1.322521333333333</v>
       </c>
       <c r="H7">
-        <v>0.854169385928834</v>
+        <v>3.967564</v>
       </c>
       <c r="I7">
-        <v>0.002251177090819211</v>
+        <v>0.003245914545756296</v>
       </c>
       <c r="J7">
-        <v>0.002251177090819211</v>
+        <v>0.003245914545756297</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>251.372816573784</v>
+        <v>50.24424533333334</v>
       </c>
       <c r="N7">
-        <v>251.372816573784</v>
+        <v>150.732736</v>
       </c>
       <c r="O7">
-        <v>0.947242756650817</v>
+        <v>0.1555699176538776</v>
       </c>
       <c r="P7">
-        <v>0.947242756650817</v>
+        <v>0.1555699176538776</v>
       </c>
       <c r="Q7">
-        <v>214.7149643720305</v>
+        <v>66.44908633056711</v>
       </c>
       <c r="R7">
-        <v>214.7149643720305</v>
+        <v>598.0417769751041</v>
       </c>
       <c r="S7">
-        <v>0.002132411193216756</v>
+        <v>0.0005049666585948304</v>
       </c>
       <c r="T7">
-        <v>0.002132411193216756</v>
+        <v>0.0005049666585948305</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>71.9740081395659</v>
+        <v>1.322521333333333</v>
       </c>
       <c r="H8">
-        <v>71.9740081395659</v>
+        <v>3.967564</v>
       </c>
       <c r="I8">
-        <v>0.1896886506673813</v>
+        <v>0.003245914545756296</v>
       </c>
       <c r="J8">
-        <v>0.1896886506673813</v>
+        <v>0.003245914545756297</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.52355150852913</v>
+        <v>14.97480166666667</v>
       </c>
       <c r="N8">
-        <v>6.52355150852913</v>
+        <v>44.924405</v>
       </c>
       <c r="O8">
-        <v>0.02458255828262532</v>
+        <v>0.04636607927357893</v>
       </c>
       <c r="P8">
-        <v>0.02458255828262532</v>
+        <v>0.04636607927357893</v>
       </c>
       <c r="Q8">
-        <v>469.526149373753</v>
+        <v>19.80449466660222</v>
       </c>
       <c r="R8">
-        <v>469.526149373753</v>
+        <v>178.24045199942</v>
       </c>
       <c r="S8">
-        <v>0.004663032310583455</v>
+        <v>0.0001505003311437994</v>
       </c>
       <c r="T8">
-        <v>0.004663032310583455</v>
+        <v>0.0001505003311437994</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>71.9740081395659</v>
+        <v>1.322521333333333</v>
       </c>
       <c r="H9">
-        <v>71.9740081395659</v>
+        <v>3.967564</v>
       </c>
       <c r="I9">
-        <v>0.1896886506673813</v>
+        <v>0.003245914545756296</v>
       </c>
       <c r="J9">
-        <v>0.1896886506673813</v>
+        <v>0.003245914545756297</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.47680559342688</v>
+        <v>257.4944153333333</v>
       </c>
       <c r="N9">
-        <v>7.47680559342688</v>
+        <v>772.483246</v>
       </c>
       <c r="O9">
-        <v>0.02817468506655764</v>
+        <v>0.7972730951372106</v>
       </c>
       <c r="P9">
-        <v>0.02817468506655764</v>
+        <v>0.7972730951372106</v>
       </c>
       <c r="Q9">
-        <v>538.135666639258</v>
+        <v>340.5418574925271</v>
       </c>
       <c r="R9">
-        <v>538.135666639258</v>
+        <v>3064.876717432744</v>
       </c>
       <c r="S9">
-        <v>0.005344417993253738</v>
+        <v>0.002587880336446015</v>
       </c>
       <c r="T9">
-        <v>0.005344417993253738</v>
+        <v>0.002587880336446015</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>71.9740081395659</v>
+        <v>80.92926666666666</v>
       </c>
       <c r="H10">
-        <v>71.9740081395659</v>
+        <v>242.7878</v>
       </c>
       <c r="I10">
-        <v>0.1896886506673813</v>
+        <v>0.1986277856014851</v>
       </c>
       <c r="J10">
-        <v>0.1896886506673813</v>
+        <v>0.1986277856014851</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>251.372816573784</v>
+        <v>0.2554386666666666</v>
       </c>
       <c r="N10">
-        <v>251.372816573784</v>
+        <v>0.766316</v>
       </c>
       <c r="O10">
-        <v>0.947242756650817</v>
+        <v>0.0007909079353329646</v>
       </c>
       <c r="P10">
-        <v>0.947242756650817</v>
+        <v>0.0007909079353329647</v>
       </c>
       <c r="Q10">
-        <v>18092.30914614713</v>
+        <v>20.67246397164444</v>
       </c>
       <c r="R10">
-        <v>18092.30914614713</v>
+        <v>186.0521757448</v>
       </c>
       <c r="S10">
-        <v>0.1796812003635441</v>
+        <v>0.0001570962918098293</v>
       </c>
       <c r="T10">
-        <v>0.1796812003635441</v>
+        <v>0.0001570962918098294</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1095,57 +1095,57 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>97.0028009572134</v>
+        <v>80.92926666666666</v>
       </c>
       <c r="H11">
-        <v>97.0028009572134</v>
+        <v>242.7878</v>
       </c>
       <c r="I11">
-        <v>0.255652434818553</v>
+        <v>0.1986277856014851</v>
       </c>
       <c r="J11">
-        <v>0.255652434818553</v>
+        <v>0.1986277856014851</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.52355150852913</v>
+        <v>50.24424533333334</v>
       </c>
       <c r="N11">
-        <v>6.52355150852913</v>
+        <v>150.732736</v>
       </c>
       <c r="O11">
-        <v>0.02458255828262532</v>
+        <v>0.1555699176538776</v>
       </c>
       <c r="P11">
-        <v>0.02458255828262532</v>
+        <v>0.1555699176538776</v>
       </c>
       <c r="Q11">
-        <v>632.8027685159805</v>
+        <v>4066.229929046756</v>
       </c>
       <c r="R11">
-        <v>632.8027685159805</v>
+        <v>36596.0693614208</v>
       </c>
       <c r="S11">
-        <v>0.00628459087902215</v>
+        <v>0.03090050824979508</v>
       </c>
       <c r="T11">
-        <v>0.00628459087902215</v>
+        <v>0.03090050824979508</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>97.0028009572134</v>
+        <v>80.92926666666666</v>
       </c>
       <c r="H12">
-        <v>97.0028009572134</v>
+        <v>242.7878</v>
       </c>
       <c r="I12">
-        <v>0.255652434818553</v>
+        <v>0.1986277856014851</v>
       </c>
       <c r="J12">
-        <v>0.255652434818553</v>
+        <v>0.1986277856014851</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.47680559342688</v>
+        <v>14.97480166666667</v>
       </c>
       <c r="N12">
-        <v>7.47680559342688</v>
+        <v>44.924405</v>
       </c>
       <c r="O12">
-        <v>0.02817468506655764</v>
+        <v>0.04636607927357893</v>
       </c>
       <c r="P12">
-        <v>0.02817468506655764</v>
+        <v>0.04636607927357893</v>
       </c>
       <c r="Q12">
-        <v>725.2710847749674</v>
+        <v>1211.899717362111</v>
       </c>
       <c r="R12">
-        <v>725.2710847749674</v>
+        <v>10907.097456259</v>
       </c>
       <c r="S12">
-        <v>0.007202926837511386</v>
+        <v>0.009209591653133897</v>
       </c>
       <c r="T12">
-        <v>0.007202926837511386</v>
+        <v>0.009209591653133897</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>97.0028009572134</v>
+        <v>80.92926666666666</v>
       </c>
       <c r="H13">
-        <v>97.0028009572134</v>
+        <v>242.7878</v>
       </c>
       <c r="I13">
-        <v>0.255652434818553</v>
+        <v>0.1986277856014851</v>
       </c>
       <c r="J13">
-        <v>0.255652434818553</v>
+        <v>0.1986277856014851</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>251.372816573784</v>
+        <v>257.4944153333333</v>
       </c>
       <c r="N13">
-        <v>251.372816573784</v>
+        <v>772.483246</v>
       </c>
       <c r="O13">
-        <v>0.947242756650817</v>
+        <v>0.7972730951372106</v>
       </c>
       <c r="P13">
-        <v>0.947242756650817</v>
+        <v>0.7972730951372106</v>
       </c>
       <c r="Q13">
-        <v>24383.86729216088</v>
+        <v>20838.83420368876</v>
       </c>
       <c r="R13">
-        <v>24383.86729216088</v>
+        <v>187549.5078331988</v>
       </c>
       <c r="S13">
-        <v>0.2421649171020195</v>
+        <v>0.1583605894067463</v>
       </c>
       <c r="T13">
-        <v>0.2421649171020195</v>
+        <v>0.1583605894067463</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,60 +1278,60 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>208.400169550348</v>
+        <v>102.1895396666667</v>
       </c>
       <c r="H14">
-        <v>208.400169550348</v>
+        <v>306.568619</v>
       </c>
       <c r="I14">
-        <v>0.5492419830809415</v>
+        <v>0.250807684434207</v>
       </c>
       <c r="J14">
-        <v>0.5492419830809415</v>
+        <v>0.250807684434207</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>6.52355150852913</v>
+        <v>0.2554386666666666</v>
       </c>
       <c r="N14">
-        <v>6.52355150852913</v>
+        <v>0.766316</v>
       </c>
       <c r="O14">
-        <v>0.02458255828262532</v>
+        <v>0.0007909079353329646</v>
       </c>
       <c r="P14">
-        <v>0.02458255828262532</v>
+        <v>0.0007909079353329647</v>
       </c>
       <c r="Q14">
-        <v>1359.509240447899</v>
+        <v>26.10315975973378</v>
       </c>
       <c r="R14">
-        <v>1359.509240447899</v>
+        <v>234.928437837604</v>
       </c>
       <c r="S14">
-        <v>0.01350177306035195</v>
+        <v>0.0001983657878615004</v>
       </c>
       <c r="T14">
-        <v>0.01350177306035195</v>
+        <v>0.0001983657878615004</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>208.400169550348</v>
+        <v>102.1895396666667</v>
       </c>
       <c r="H15">
-        <v>208.400169550348</v>
+        <v>306.568619</v>
       </c>
       <c r="I15">
-        <v>0.5492419830809415</v>
+        <v>0.250807684434207</v>
       </c>
       <c r="J15">
-        <v>0.5492419830809415</v>
+        <v>0.250807684434207</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.47680559342688</v>
+        <v>50.24424533333334</v>
       </c>
       <c r="N15">
-        <v>7.47680559342688</v>
+        <v>150.732736</v>
       </c>
       <c r="O15">
-        <v>0.02817468506655764</v>
+        <v>0.1555699176538776</v>
       </c>
       <c r="P15">
-        <v>0.02817468506655764</v>
+        <v>0.1555699176538776</v>
       </c>
       <c r="Q15">
-        <v>1558.167553365152</v>
+        <v>5134.436301512399</v>
       </c>
       <c r="R15">
-        <v>1558.167553365152</v>
+        <v>46209.92671361159</v>
       </c>
       <c r="S15">
-        <v>0.01547471989863711</v>
+        <v>0.0390181308143893</v>
       </c>
       <c r="T15">
-        <v>0.01547471989863711</v>
+        <v>0.0390181308143893</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,60 +1402,60 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>208.400169550348</v>
+        <v>102.1895396666667</v>
       </c>
       <c r="H16">
-        <v>208.400169550348</v>
+        <v>306.568619</v>
       </c>
       <c r="I16">
-        <v>0.5492419830809415</v>
+        <v>0.250807684434207</v>
       </c>
       <c r="J16">
-        <v>0.5492419830809415</v>
+        <v>0.250807684434207</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>251.372816573784</v>
+        <v>14.97480166666667</v>
       </c>
       <c r="N16">
-        <v>251.372816573784</v>
+        <v>44.924405</v>
       </c>
       <c r="O16">
-        <v>0.947242756650817</v>
+        <v>0.04636607927357893</v>
       </c>
       <c r="P16">
-        <v>0.947242756650817</v>
+        <v>0.04636607927357893</v>
       </c>
       <c r="Q16">
-        <v>52386.13759432512</v>
+        <v>1530.2680889163</v>
       </c>
       <c r="R16">
-        <v>52386.13759432512</v>
+        <v>13772.4128002467</v>
       </c>
       <c r="S16">
-        <v>0.5202654901219524</v>
+        <v>0.01162896897889921</v>
       </c>
       <c r="T16">
-        <v>0.5202654901219524</v>
+        <v>0.01162896897889921</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.552248850350452</v>
+        <v>102.1895396666667</v>
       </c>
       <c r="H17">
-        <v>0.552248850350452</v>
+        <v>306.568619</v>
       </c>
       <c r="I17">
-        <v>0.001455460685925079</v>
+        <v>0.250807684434207</v>
       </c>
       <c r="J17">
-        <v>0.001455460685925079</v>
+        <v>0.250807684434207</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.52355150852913</v>
+        <v>257.4944153333333</v>
       </c>
       <c r="N17">
-        <v>6.52355150852913</v>
+        <v>772.483246</v>
       </c>
       <c r="O17">
-        <v>0.02458255828262532</v>
+        <v>0.7972730951372106</v>
       </c>
       <c r="P17">
-        <v>0.02458255828262532</v>
+        <v>0.7972730951372106</v>
       </c>
       <c r="Q17">
-        <v>3.602623820787169</v>
+        <v>26313.23576965081</v>
       </c>
       <c r="R17">
-        <v>3.602623820787169</v>
+        <v>236819.1219268573</v>
       </c>
       <c r="S17">
-        <v>3.577894713982309E-05</v>
+        <v>0.199962218853057</v>
       </c>
       <c r="T17">
-        <v>3.577894713982309E-05</v>
+        <v>0.199962218853057</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,117 +1526,489 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.552248850350452</v>
+        <v>220.1281486666667</v>
       </c>
       <c r="H18">
-        <v>0.552248850350452</v>
+        <v>660.384446</v>
       </c>
       <c r="I18">
-        <v>0.001455460685925079</v>
+        <v>0.5402689103597608</v>
       </c>
       <c r="J18">
-        <v>0.001455460685925079</v>
+        <v>0.5402689103597608</v>
       </c>
       <c r="K18">
         <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>7.47680559342688</v>
+        <v>0.2554386666666666</v>
       </c>
       <c r="N18">
-        <v>7.47680559342688</v>
+        <v>0.766316</v>
       </c>
       <c r="O18">
-        <v>0.02817468506655764</v>
+        <v>0.0007909079353329646</v>
       </c>
       <c r="P18">
-        <v>0.02817468506655764</v>
+        <v>0.0007909079353329647</v>
       </c>
       <c r="Q18">
-        <v>4.129057293263823</v>
+        <v>56.22924079121511</v>
       </c>
       <c r="R18">
-        <v>4.129057293263823</v>
+        <v>506.063167120936</v>
       </c>
       <c r="S18">
-        <v>4.100714645269507E-05</v>
+        <v>0.0004273029684172289</v>
       </c>
       <c r="T18">
-        <v>4.100714645269507E-05</v>
+        <v>0.000427302968417229</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>220.1281486666667</v>
+      </c>
+      <c r="H19">
+        <v>660.384446</v>
+      </c>
+      <c r="I19">
+        <v>0.5402689103597608</v>
+      </c>
+      <c r="J19">
+        <v>0.5402689103597608</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>50.24424533333334</v>
+      </c>
+      <c r="N19">
+        <v>150.732736</v>
+      </c>
+      <c r="O19">
+        <v>0.1555699176538776</v>
+      </c>
+      <c r="P19">
+        <v>0.1555699176538776</v>
+      </c>
+      <c r="Q19">
+        <v>11060.17270638047</v>
+      </c>
+      <c r="R19">
+        <v>99541.55435742428</v>
+      </c>
+      <c r="S19">
+        <v>0.08404958989561814</v>
+      </c>
+      <c r="T19">
+        <v>0.08404958989561814</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>220.1281486666667</v>
+      </c>
+      <c r="H20">
+        <v>660.384446</v>
+      </c>
+      <c r="I20">
+        <v>0.5402689103597608</v>
+      </c>
+      <c r="J20">
+        <v>0.5402689103597608</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>14.97480166666667</v>
+      </c>
+      <c r="N20">
+        <v>44.924405</v>
+      </c>
+      <c r="O20">
+        <v>0.04636607927357893</v>
+      </c>
+      <c r="P20">
+        <v>0.04636607927357893</v>
+      </c>
+      <c r="Q20">
+        <v>3296.375367533848</v>
+      </c>
+      <c r="R20">
+        <v>29667.37830780463</v>
+      </c>
+      <c r="S20">
+        <v>0.02505015112679078</v>
+      </c>
+      <c r="T20">
+        <v>0.02505015112679078</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>220.1281486666667</v>
+      </c>
+      <c r="H21">
+        <v>660.384446</v>
+      </c>
+      <c r="I21">
+        <v>0.5402689103597608</v>
+      </c>
+      <c r="J21">
+        <v>0.5402689103597608</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>257.4944153333333</v>
+      </c>
+      <c r="N21">
+        <v>772.483246</v>
+      </c>
+      <c r="O21">
+        <v>0.7972730951372106</v>
+      </c>
+      <c r="P21">
+        <v>0.7972730951372106</v>
+      </c>
+      <c r="Q21">
+        <v>56681.76893933242</v>
+      </c>
+      <c r="R21">
+        <v>510135.9204539917</v>
+      </c>
+      <c r="S21">
+        <v>0.4307418663689346</v>
+      </c>
+      <c r="T21">
+        <v>0.4307418663689346</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.7373666666666666</v>
+      </c>
+      <c r="H22">
+        <v>2.2121</v>
+      </c>
+      <c r="I22">
+        <v>0.001809747131153399</v>
+      </c>
+      <c r="J22">
+        <v>0.001809747131153399</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.2554386666666666</v>
+      </c>
+      <c r="N22">
+        <v>0.766316</v>
+      </c>
+      <c r="O22">
+        <v>0.0007909079353329646</v>
+      </c>
+      <c r="P22">
+        <v>0.0007909079353329647</v>
+      </c>
+      <c r="Q22">
+        <v>0.1883519581777778</v>
+      </c>
+      <c r="R22">
+        <v>1.6951676236</v>
+      </c>
+      <c r="S22">
+        <v>1.43134336697529E-06</v>
+      </c>
+      <c r="T22">
+        <v>1.431343366975291E-06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.7373666666666666</v>
+      </c>
+      <c r="H23">
+        <v>2.2121</v>
+      </c>
+      <c r="I23">
+        <v>0.001809747131153399</v>
+      </c>
+      <c r="J23">
+        <v>0.001809747131153399</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>50.24424533333334</v>
+      </c>
+      <c r="N23">
+        <v>150.732736</v>
+      </c>
+      <c r="O23">
+        <v>0.1555699176538776</v>
+      </c>
+      <c r="P23">
+        <v>0.1555699176538776</v>
+      </c>
+      <c r="Q23">
+        <v>37.04843170062222</v>
+      </c>
+      <c r="R23">
+        <v>333.4358853056</v>
+      </c>
+      <c r="S23">
+        <v>0.0002815422121678754</v>
+      </c>
+      <c r="T23">
+        <v>0.0002815422121678754</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.7373666666666666</v>
+      </c>
+      <c r="H24">
+        <v>2.2121</v>
+      </c>
+      <c r="I24">
+        <v>0.001809747131153399</v>
+      </c>
+      <c r="J24">
+        <v>0.001809747131153399</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>14.97480166666667</v>
+      </c>
+      <c r="N24">
+        <v>44.924405</v>
+      </c>
+      <c r="O24">
+        <v>0.04636607927357893</v>
+      </c>
+      <c r="P24">
+        <v>0.04636607927357893</v>
+      </c>
+      <c r="Q24">
+        <v>11.04191958894444</v>
+      </c>
+      <c r="R24">
+        <v>99.3772763005</v>
+      </c>
+      <c r="S24">
+        <v>8.391087894819053E-05</v>
+      </c>
+      <c r="T24">
+        <v>8.391087894819054E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.552248850350452</v>
-      </c>
-      <c r="H19">
-        <v>0.552248850350452</v>
-      </c>
-      <c r="I19">
-        <v>0.001455460685925079</v>
-      </c>
-      <c r="J19">
-        <v>0.001455460685925079</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>251.372816573784</v>
-      </c>
-      <c r="N19">
-        <v>251.372816573784</v>
-      </c>
-      <c r="O19">
-        <v>0.947242756650817</v>
-      </c>
-      <c r="P19">
-        <v>0.947242756650817</v>
-      </c>
-      <c r="Q19">
-        <v>138.8203489622273</v>
-      </c>
-      <c r="R19">
-        <v>138.8203489622273</v>
-      </c>
-      <c r="S19">
-        <v>0.001378674592332561</v>
-      </c>
-      <c r="T19">
-        <v>0.001378674592332561</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.7373666666666666</v>
+      </c>
+      <c r="H25">
+        <v>2.2121</v>
+      </c>
+      <c r="I25">
+        <v>0.001809747131153399</v>
+      </c>
+      <c r="J25">
+        <v>0.001809747131153399</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>257.4944153333333</v>
+      </c>
+      <c r="N25">
+        <v>772.483246</v>
+      </c>
+      <c r="O25">
+        <v>0.7972730951372106</v>
+      </c>
+      <c r="P25">
+        <v>0.7972730951372106</v>
+      </c>
+      <c r="Q25">
+        <v>189.8677987196222</v>
+      </c>
+      <c r="R25">
+        <v>1708.8101884766</v>
+      </c>
+      <c r="S25">
+        <v>0.001442862696670358</v>
+      </c>
+      <c r="T25">
+        <v>0.001442862696670358</v>
       </c>
     </row>
   </sheetData>
